--- a/pack/dragon-ruler/dragon-deity.xlsx
+++ b/pack/dragon-ruler/dragon-deity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\EdoPro\repositories\triplesix\pack\dragon-ruler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E47BA75-AB52-4B92-8BB0-7C3B019E4807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A4E965-8C68-4948-9214-6C49C8495783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4EC269A-6C8F-4BD0-A986-8BB17C270A75}"/>
   </bookViews>
@@ -66,10 +66,6 @@
     <t>DARK</t>
   </si>
   <si>
-    <t>- Cannot be destroyed by card effects
-- Cannot be sent to the GY</t>
-  </si>
-  <si>
     <t>- Destroy 1 card on the field
 - Inflict damage</t>
   </si>
@@ -78,18 +74,23 @@
 - Avoid battle damage</t>
   </si>
   <si>
-    <t>- Unaffected by your opponent's activated Spell Cards or effects
-- Cannot be banished by card effects</t>
-  </si>
-  <si>
-    <t>- Unaffected by your opponent's activated Trap Cards or effects
-- Cannot be return to the Extra Deck</t>
-  </si>
-  <si>
-    <t>- Effects cannot be negated</t>
-  </si>
-  <si>
     <t>- Cannot be targeted with your opponent's card effects</t>
+  </si>
+  <si>
+    <t>- Cannot be destroyed by card effects
+- Attacks cannot be negated</t>
+  </si>
+  <si>
+    <t>- Cannot be banished by card effects
+- Activation and effects cannot be negated</t>
+  </si>
+  <si>
+    <t>- Cannot be sent to the GY
+- Unaffected by your opponent's activated Trap Cards or effects</t>
+  </si>
+  <si>
+    <t>- Cannot be returned to the Extra Deck
+- Unaffected by your opponent's activated Spell Cards or effects</t>
   </si>
 </sst>
 </file>
@@ -165,13 +166,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -495,7 +496,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -538,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -548,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -558,17 +559,17 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -578,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/pack/dragon-ruler/dragon-deity.xlsx
+++ b/pack/dragon-ruler/dragon-deity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\EdoPro\repositories\triplesix\pack\dragon-ruler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A4E965-8C68-4948-9214-6C49C8495783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EF0AEA-E0BF-45A6-8159-8FBA24A07C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4EC269A-6C8F-4BD0-A986-8BB17C270A75}"/>
   </bookViews>
@@ -85,11 +85,11 @@
 - Activation and effects cannot be negated</t>
   </si>
   <si>
+    <t>- Cannot be returned to the Extra Deck
+- Unaffected by your opponent's activated Trap Cards or effects</t>
+  </si>
+  <si>
     <t>- Cannot be sent to the GY
-- Unaffected by your opponent's activated Trap Cards or effects</t>
-  </si>
-  <si>
-    <t>- Cannot be returned to the Extra Deck
 - Unaffected by your opponent's activated Spell Cards or effects</t>
   </si>
 </sst>
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -171,9 +171,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,7 +493,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,16 +506,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -564,22 +561,22 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/pack/dragon-ruler/dragon-deity.xlsx
+++ b/pack/dragon-ruler/dragon-deity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\EdoPro\repositories\triplesix\pack\dragon-ruler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EF0AEA-E0BF-45A6-8159-8FBA24A07C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ABCE0F-F004-453B-A9B2-2E3E8EFC7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4EC269A-6C8F-4BD0-A986-8BB17C270A75}"/>
   </bookViews>
@@ -74,9 +74,6 @@
 - Avoid battle damage</t>
   </si>
   <si>
-    <t>- Cannot be targeted with your opponent's card effects</t>
-  </si>
-  <si>
     <t>- Cannot be destroyed by card effects
 - Attacks cannot be negated</t>
   </si>
@@ -91,6 +88,10 @@
   <si>
     <t>- Cannot be sent to the GY
 - Unaffected by your opponent's activated Spell Cards or effects</t>
+  </si>
+  <si>
+    <t>- Cannot be targeted with your opponent's card effects
+- Your opponent cannot target, destroy, banish face-up your Spells and Traps</t>
   </si>
 </sst>
 </file>
@@ -493,13 +494,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="58.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -524,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -546,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -556,17 +557,17 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -576,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/pack/dragon-ruler/dragon-deity.xlsx
+++ b/pack/dragon-ruler/dragon-deity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\EdoPro\repositories\triplesix\pack\dragon-ruler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ABCE0F-F004-453B-A9B2-2E3E8EFC7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108C76CB-E2C1-40FB-B6E8-A901B46EEC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4EC269A-6C8F-4BD0-A986-8BB17C270A75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Attribute</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Ignition Effect</t>
-  </si>
-  <si>
-    <t>Supreme Effect</t>
   </si>
   <si>
     <t>FIRE</t>
@@ -92,6 +89,13 @@
   <si>
     <t>- Cannot be targeted with your opponent's card effects
 - Your opponent cannot target, destroy, banish face-up your Spells and Traps</t>
+  </si>
+  <si>
+    <t>Deity Effect</t>
+  </si>
+  <si>
+    <t>- Block 1 card on the field
+- steal ATK</t>
   </si>
 </sst>
 </file>
@@ -494,7 +498,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +506,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="70.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -517,67 +521,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/pack/dragon-ruler/dragon-deity.xlsx
+++ b/pack/dragon-ruler/dragon-deity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\EdoPro\repositories\triplesix\pack\dragon-ruler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectIgnis\repositories\TripleSix\pack\dragon-ruler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108C76CB-E2C1-40FB-B6E8-A901B46EEC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D2BF6E-CA7B-45B2-BE77-49A3403113B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4EC269A-6C8F-4BD0-A986-8BB17C270A75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4EC269A-6C8F-4BD0-A986-8BB17C270A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,6 @@
 - Attacks cannot be negated</t>
   </si>
   <si>
-    <t>- Cannot be banished by card effects
-- Activation and effects cannot be negated</t>
-  </si>
-  <si>
     <t>- Cannot be returned to the Extra Deck
 - Unaffected by your opponent's activated Trap Cards or effects</t>
   </si>
@@ -87,15 +83,19 @@
 - Unaffected by your opponent's activated Spell Cards or effects</t>
   </si>
   <si>
-    <t>- Cannot be targeted with your opponent's card effects
-- Your opponent cannot target, destroy, banish face-up your Spells and Traps</t>
-  </si>
-  <si>
     <t>Deity Effect</t>
   </si>
   <si>
     <t>- Block 1 card on the field
 - steal ATK</t>
+  </si>
+  <si>
+    <t>- Activation and effects cannot be negated
+- Your opponent cannot target, destroy, banish face-up your Spells and Traps</t>
+  </si>
+  <si>
+    <t>- Cannot be banished by card effects
+- Cannot be targeted with your opponent's card effects</t>
   </si>
 </sst>
 </file>
@@ -498,19 +498,19 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="70.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="70.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -521,10 +521,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -544,46 +544,46 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/pack/dragon-ruler/dragon-deity.xlsx
+++ b/pack/dragon-ruler/dragon-deity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectIgnis\repositories\TripleSix\pack\dragon-ruler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D2BF6E-CA7B-45B2-BE77-49A3403113B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7304E734-E648-4CCC-995C-80FE3DBA2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4EC269A-6C8F-4BD0-A986-8BB17C270A75}"/>
   </bookViews>
@@ -90,12 +90,12 @@
 - steal ATK</t>
   </si>
   <si>
-    <t>- Activation and effects cannot be negated
-- Your opponent cannot target, destroy, banish face-up your Spells and Traps</t>
-  </si>
-  <si>
     <t>- Cannot be banished by card effects
 - Cannot be targeted with your opponent's card effects</t>
+  </si>
+  <si>
+    <t>- Effects cannot be negated
+- Your opponent cannot target, destroy, banish face-up your Spells and Traps</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/pack/dragon-ruler/dragon-deity.xlsx
+++ b/pack/dragon-ruler/dragon-deity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectIgnis\repositories\TripleSix\pack\dragon-ruler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7304E734-E648-4CCC-995C-80FE3DBA2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1D29BA-B46A-4DDB-8432-6BAFF056CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4EC269A-6C8F-4BD0-A986-8BB17C270A75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Attribute</t>
   </si>
@@ -96,6 +96,14 @@
   <si>
     <t>- Effects cannot be negated
 - Your opponent cannot target, destroy, banish face-up your Spells and Traps</t>
+  </si>
+  <si>
+    <t>- Special Summon 1 monster from hand or GY
+- Gain LP equal to the ATK of the Special Summoned monster</t>
+  </si>
+  <si>
+    <t>- Send 5 cards from the top of your opponent Deck
+- Gain number of attack up to the sent monster</t>
   </si>
 </sst>
 </file>
@@ -498,15 +506,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="70.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
@@ -555,7 +563,9 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -565,7 +575,9 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">

--- a/pack/dragon-ruler/dragon-deity.xlsx
+++ b/pack/dragon-ruler/dragon-deity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectIgnis\repositories\TripleSix\pack\dragon-ruler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\EdoPro\repositories\triplesix\pack\dragon-ruler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1D29BA-B46A-4DDB-8432-6BAFF056CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F8BD2-8A44-41FA-A1E4-E9FCB785D8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4EC269A-6C8F-4BD0-A986-8BB17C270A75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4EC269A-6C8F-4BD0-A986-8BB17C270A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,19 +506,19 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="70.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="70.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -532,7 +532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -544,7 +544,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -556,7 +556,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -568,7 +568,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -580,7 +580,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -590,7 +590,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
